--- a/R/summary/summary.xlsx
+++ b/R/summary/summary.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="68">
   <si>
     <t>Here we used several models to perform 1-step ahead forecasts (expanding window). In the next tab you find a summary of the winning frequency of each model. That is, the model with the lowest RMSE across the six 1-step-ahead forecasts for 2011 to 2016.</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>RW</t>
+  </si>
+  <si>
+    <t>PCR</t>
   </si>
   <si>
     <t>ALGERIA</t>
@@ -337,7 +340,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -354,10 +357,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.040181789632833365</v>
@@ -377,10 +383,13 @@
       <c r="G2" t="n">
         <v>-0.5009906753783451</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.023459187457504083</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.044016885416772844</v>
@@ -400,10 +409,13 @@
       <c r="G3" t="n">
         <v>0.6921923555437672</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04259795232944789</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.05259245011917191</v>
@@ -423,10 +435,13 @@
       <c r="G4" t="n">
         <v>0.7754404294903292</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.02161440543180957</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.05732506661926973</v>
@@ -446,10 +461,13 @@
       <c r="G5" t="n">
         <v>0.5840047710437695</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.04360293651908472</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.05543470688810004</v>
@@ -469,10 +487,13 @@
       <c r="G6" t="n">
         <v>-1.8724760425528135</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.001941433047530309</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.04401688541677373</v>
@@ -492,10 +513,13 @@
       <c r="G7" t="n">
         <v>0.41796615545473337</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.0283420633441665</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -514,6 +538,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.9460071972652584</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02749795536323059</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +559,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -549,10 +576,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.03246719013750088</v>
@@ -572,10 +602,13 @@
       <c r="G2" t="n">
         <v>-1.4832295813427603</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.004064616475470784</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.040181789632832476</v>
@@ -595,10 +628,13 @@
       <c r="G3" t="n">
         <v>-0.7158944371641187</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.006849338699289789</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>-0.45728485683796105</v>
@@ -618,10 +654,13 @@
       <c r="G4" t="n">
         <v>-1.4937010646964772</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.006566251612627501</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.009950330853166989</v>
@@ -641,10 +680,13 @@
       <c r="G5" t="n">
         <v>2.0670131743696167</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.1576571817964716</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.04688358589885411</v>
@@ -664,10 +706,13 @@
       <c r="G6" t="n">
         <v>1.7671126053578963</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.06178883049836439</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.04401688541677462</v>
@@ -687,10 +732,13 @@
       <c r="G7" t="n">
         <v>0.24981527916636814</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.0037899375648791796</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -709,6 +757,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.3648073685902797</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.20787138411066916</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +778,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -744,10 +795,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>9.995003330853791E-4</v>
@@ -767,10 +821,13 @@
       <c r="G2" t="n">
         <v>-0.44952037837777015</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.1392182010339559</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.08525984395082364</v>
@@ -790,10 +847,13 @@
       <c r="G3" t="n">
         <v>0.2605666706520138</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04357594306560753</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.05543470688809826</v>
@@ -813,10 +873,13 @@
       <c r="G4" t="n">
         <v>0.04748822760893345</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.036846138409427416</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.06672363204290921</v>
@@ -836,10 +899,13 @@
       <c r="G5" t="n">
         <v>0.19444933371896944</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.060758017048350585</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.017839918128331078</v>
@@ -859,10 +925,13 @@
       <c r="G6" t="n">
         <v>-0.3762271812886686</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.038631475788204445</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>-0.07257069283483553</v>
@@ -882,10 +951,13 @@
       <c r="G7" t="n">
         <v>-2.1043451176331183</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.06347970428739513</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -904,6 +976,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.8692404575365957</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.08181796836457074</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +997,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -939,10 +1014,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.02566774674857797</v>
@@ -962,10 +1040,13 @@
       <c r="G2" t="n">
         <v>-0.4324925118467915</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.014563062382095317</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.029558802241544058</v>
@@ -985,10 +1066,13 @@
       <c r="G3" t="n">
         <v>0.2805217544854628</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.024992612554663052</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.034401426717332484</v>
@@ -1008,10 +1092,13 @@
       <c r="G4" t="n">
         <v>-1.5364860966949907</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.017022132864538023</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.02078253918252848</v>
@@ -1031,10 +1118,13 @@
       <c r="G5" t="n">
         <v>-0.9935567934898515</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.04979394533189547</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.009950330853166989</v>
@@ -1054,10 +1144,13 @@
       <c r="G6" t="n">
         <v>-0.657247951583237</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.04994012274005999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.021761491781513875</v>
@@ -1077,10 +1170,13 @@
       <c r="G7" t="n">
         <v>0.5985473886673995</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.03257058384457073</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -1099,6 +1195,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.8705650117315051</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02237515575776603</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1216,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1134,10 +1233,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.06672363204290743</v>
@@ -1157,10 +1259,13 @@
       <c r="G2" t="n">
         <v>-0.04842604374537984</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.06423721331736727</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.06952606264861316</v>
@@ -1180,10 +1285,13 @@
       <c r="G3" t="n">
         <v>1.062867680637062</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.049857327375764204</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.08157998699242341</v>
@@ -1203,10 +1311,13 @@
       <c r="G4" t="n">
         <v>0.01571390888030777</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.08055115480123282</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.09075436326846287</v>
@@ -1226,10 +1337,13 @@
       <c r="G5" t="n">
         <v>-0.34494504312710994</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.05715836866823282</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.06672363204291099</v>
@@ -1249,10 +1363,13 @@
       <c r="G6" t="n">
         <v>-0.834043634739583</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.08535157724029538</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.023716526617312716</v>
@@ -1272,10 +1389,13 @@
       <c r="G7" t="n">
         <v>0.8522242694611091</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.07397925943345213</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -1294,6 +1414,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.6698216279602989</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02706822684314527</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1435,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1329,10 +1452,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.033434776086236795</v>
@@ -1352,10 +1478,13 @@
       <c r="G2" t="n">
         <v>-0.25526848366265686</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.05202840174422132</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.03729578474369699</v>
@@ -1375,10 +1504,13 @@
       <c r="G3" t="n">
         <v>-2.1883931002059906</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.043613715772464735</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.03343477608623768</v>
@@ -1398,10 +1530,13 @@
       <c r="G4" t="n">
         <v>0.3334268724361579</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.06190938456714448</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.06578774053800274</v>
@@ -1421,10 +1556,13 @@
       <c r="G5" t="n">
         <v>-0.25176576526877426</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.05069037608432957</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.02566774674857797</v>
@@ -1444,10 +1582,13 @@
       <c r="G6" t="n">
         <v>-0.1108438395850403</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.07961939211031657</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>-0.019182819416773356</v>
@@ -1467,10 +1608,13 @@
       <c r="G7" t="n">
         <v>-0.01860573226815654</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.058220704854367006</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -1489,6 +1633,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.9351035431021987</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04148585806435191</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1654,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1524,10 +1671,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.04401688541677462</v>
@@ -1547,10 +1697,13 @@
       <c r="G2" t="n">
         <v>-0.10438981244915357</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.04040351789911861</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.04688358589885322</v>
@@ -1570,10 +1723,13 @@
       <c r="G3" t="n">
         <v>-1.4229991301271214</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.040124071546107046</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.04879016416943127</v>
@@ -1593,10 +1749,13 @@
       <c r="G4" t="n">
         <v>0.5239539743925166</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.06962886786413713</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.05826890812397334</v>
@@ -1616,10 +1775,13 @@
       <c r="G5" t="n">
         <v>-1.0134056699853962</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.04635880277370569</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.06297479916139093</v>
@@ -1639,10 +1801,13 @@
       <c r="G6" t="n">
         <v>0.37196199219166237</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.059790741820376664</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.06109509935980828</v>
@@ -1662,10 +1827,13 @@
       <c r="G7" t="n">
         <v>1.0917742580960654</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.05838133490559425</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -1684,6 +1852,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.8864366313565967</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.010427147092219403</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1873,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1719,10 +1890,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.017839918128332855</v>
@@ -1742,10 +1916,13 @@
       <c r="G2" t="n">
         <v>1.796049311927348</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.03383532287927806</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.021761491781510323</v>
@@ -1765,10 +1942,13 @@
       <c r="G3" t="n">
         <v>0.03679946274943546</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04407708235934321</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.021761491781512987</v>
@@ -1788,10 +1968,13 @@
       <c r="G4" t="n">
         <v>1.745279439161969</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.0029541871968915313</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.028587456851916215</v>
@@ -1811,10 +1994,13 @@
       <c r="G5" t="n">
         <v>0.3404587093979625</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.048788589282573375</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.043059489460447686</v>
@@ -1834,10 +2020,13 @@
       <c r="G6" t="n">
         <v>0.5104683380719734</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.03003231897954839</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.04210117601863317</v>
@@ -1857,10 +2046,13 @@
       <c r="G7" t="n">
         <v>0.11115920958335046</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.032550319702631204</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -1879,6 +2071,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.0370850676803431</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.017207387174849376</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +2092,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1914,10 +2109,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.06297479916138649</v>
@@ -1937,10 +2135,13 @@
       <c r="G2" t="n">
         <v>-0.39652095090428596</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.045986606986179304</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.07973496801885638</v>
@@ -1960,10 +2161,13 @@
       <c r="G3" t="n">
         <v>-2.408068174729343</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.09156575806424838</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>-0.04186420409870095</v>
@@ -1983,10 +2187,13 @@
       <c r="G4" t="n">
         <v>1.398101080357098</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.15527676338394486</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.0039920212695392365</v>
@@ -2006,10 +2213,13 @@
       <c r="G5" t="n">
         <v>1.083980449339721</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.12575383347337948</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>-0.09431067947124383</v>
@@ -2029,10 +2239,13 @@
       <c r="G6" t="n">
         <v>-0.8172885031722278</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.013395285174676592</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>-0.09321238172217683</v>
@@ -2052,10 +2265,13 @@
       <c r="G7" t="n">
         <v>1.4716298739524745</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.02657428788766353</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2074,6 +2290,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.449804818203008</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.12013825566425251</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2311,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2109,10 +2328,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.08342160813907284</v>
@@ -2132,10 +2354,13 @@
       <c r="G2" t="n">
         <v>0.6914388194772352</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.02457287808686531</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.06765864847381398</v>
@@ -2155,10 +2380,13 @@
       <c r="G3" t="n">
         <v>0.40012136407624066</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.03574304586201052</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.03052920503482337</v>
@@ -2178,10 +2406,13 @@
       <c r="G4" t="n">
         <v>-0.25331536259141796</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.07245626925308987</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.04879016416943216</v>
@@ -2201,10 +2432,13 @@
       <c r="G5" t="n">
         <v>1.2341627597903466</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.003256467674329591</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.046883585898850555</v>
@@ -2224,10 +2458,13 @@
       <c r="G6" t="n">
         <v>-0.3364281760204868</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.0292272011040114</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.03729578474369699</v>
@@ -2247,10 +2484,13 @@
       <c r="G7" t="n">
         <v>-0.6531777155639551</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.02794399785131671</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2269,6 +2509,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.6569593946130379</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03947090312533776</v>
       </c>
     </row>
   </sheetData>
@@ -2301,10 +2544,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -2321,10 +2567,13 @@
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2341,10 +2590,13 @@
       <c r="F3" t="n">
         <v>0.0</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2361,10 +2613,13 @@
       <c r="F4" t="n">
         <v>0.0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2381,10 +2636,13 @@
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2401,10 +2659,13 @@
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2421,10 +2682,13 @@
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2433,18 +2697,21 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -2461,10 +2728,13 @@
       <c r="F9" t="n">
         <v>0.0</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2481,10 +2751,13 @@
       <c r="F10" t="n">
         <v>0.0</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -2501,10 +2774,13 @@
       <c r="F11" t="n">
         <v>0.0</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2521,30 +2797,36 @@
       <c r="F12" t="n">
         <v>0.0</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -2561,10 +2843,13 @@
       <c r="F14" t="n">
         <v>0.0</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -2573,18 +2858,21 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -2601,10 +2889,13 @@
       <c r="F16" t="n">
         <v>0.0</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2621,10 +2912,13 @@
       <c r="F17" t="n">
         <v>0.0</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -2641,10 +2935,13 @@
       <c r="F18" t="n">
         <v>0.0</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -2661,10 +2958,13 @@
       <c r="F19" t="n">
         <v>0.0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -2681,10 +2981,13 @@
       <c r="F20" t="n">
         <v>0.0</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2701,10 +3004,13 @@
       <c r="F21" t="n">
         <v>0.0</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2721,10 +3027,13 @@
       <c r="F22" t="n">
         <v>0.0</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2741,10 +3050,13 @@
       <c r="F23" t="n">
         <v>0.0</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -2761,10 +3073,13 @@
       <c r="F24" t="n">
         <v>0.0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -2781,10 +3096,13 @@
       <c r="F25" t="n">
         <v>0.0</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -2801,10 +3119,13 @@
       <c r="F26" t="n">
         <v>0.0</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -2816,15 +3137,18 @@
         <v>0.0</v>
       </c>
       <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>1.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -2841,10 +3165,13 @@
       <c r="F28" t="n">
         <v>0.0</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -2856,15 +3183,18 @@
         <v>0.0</v>
       </c>
       <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -2881,10 +3211,13 @@
       <c r="F30" t="n">
         <v>0.0</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -2901,10 +3234,13 @@
       <c r="F31" t="n">
         <v>0.0</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -2916,15 +3252,18 @@
         <v>0.0</v>
       </c>
       <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -2941,10 +3280,13 @@
       <c r="F33" t="n">
         <v>0.0</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="n">
         <v>1.0</v>
@@ -2961,10 +3303,13 @@
       <c r="F34" t="n">
         <v>0.0</v>
       </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -2981,10 +3326,13 @@
       <c r="F35" t="n">
         <v>0.0</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -3001,10 +3349,13 @@
       <c r="F36" t="n">
         <v>0.0</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -3021,10 +3372,13 @@
       <c r="F37" t="n">
         <v>0.0</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -3041,10 +3395,13 @@
       <c r="F38" t="n">
         <v>0.0</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -3061,10 +3418,13 @@
       <c r="F39" t="n">
         <v>0.0</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -3081,10 +3441,13 @@
       <c r="F40" t="n">
         <v>0.0</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -3101,10 +3464,13 @@
       <c r="F41" t="n">
         <v>0.0</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -3113,18 +3479,21 @@
         <v>0.0</v>
       </c>
       <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -3133,18 +3502,21 @@
         <v>0.0</v>
       </c>
       <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -3161,10 +3533,13 @@
       <c r="F44" t="n">
         <v>0.0</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -3181,10 +3556,13 @@
       <c r="F45" t="n">
         <v>0.0</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
@@ -3201,10 +3579,13 @@
       <c r="F46" t="n">
         <v>0.0</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -3221,30 +3602,36 @@
       <c r="F47" t="n">
         <v>0.0</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n">
         <v>1.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -3261,30 +3648,36 @@
       <c r="F49" t="n">
         <v>0.0</v>
       </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
         <v>1.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -3301,10 +3694,13 @@
       <c r="F51" t="n">
         <v>0.0</v>
       </c>
+      <c r="G51" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" t="n">
         <v>1.0</v>
@@ -3321,10 +3717,13 @@
       <c r="F52" t="n">
         <v>0.0</v>
       </c>
+      <c r="G52" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -3341,25 +3740,31 @@
       <c r="F53" t="n">
         <v>0.0</v>
       </c>
+      <c r="G53" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="n">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C54" t="n">
         <v>0.17307692307692307</v>
       </c>
-      <c r="C54" t="n">
-        <v>0.21153846153846154</v>
-      </c>
       <c r="D54" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.25</v>
       </c>
       <c r="E54" t="n">
-        <v>0.28846153846153844</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="F54" t="n">
         <v>0.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.19230769230769232</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3783,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3395,10 +3800,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.10616019582838998</v>
@@ -3418,10 +3826,13 @@
       <c r="G2" t="n">
         <v>1.2598250145061085</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.023640625644147616</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.08250122151174377</v>
@@ -3441,10 +3852,13 @@
       <c r="G3" t="n">
         <v>0.397373371013396</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.03331522595726108</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.10074990310014353</v>
@@ -3464,10 +3878,13 @@
       <c r="G4" t="n">
         <v>0.5842568738575471</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.08611454987339472</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.09803374027136424</v>
@@ -3487,10 +3904,13 @@
       <c r="G5" t="n">
         <v>-1.1100264960087864</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.061947436765617446</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.09893994785490534</v>
@@ -3510,10 +3930,13 @@
       <c r="G6" t="n">
         <v>1.2871688688529233</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.09194371994411334</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.07325046173959304</v>
@@ -3533,10 +3956,13 @@
       <c r="G7" t="n">
         <v>0.7936634057281378</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.08634390073821774</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3555,6 +3981,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.9178015660806983</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04275032521640181</v>
       </c>
     </row>
   </sheetData>
@@ -3573,7 +4002,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3590,10 +4019,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.06859279146561192</v>
@@ -3613,10 +4045,13 @@
       <c r="G2" t="n">
         <v>1.1895696847124686</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.03499780467641127</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.05164323315183861</v>
@@ -3636,10 +4071,13 @@
       <c r="G3" t="n">
         <v>-1.510946211288581</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04290786677427741</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.05448818528406907</v>
@@ -3659,10 +4097,13 @@
       <c r="G4" t="n">
         <v>2.132132377267477</v>
       </c>
+      <c r="H4" t="n">
+        <v>-0.007643100122571349</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.04210117601863583</v>
@@ -3682,10 +4123,13 @@
       <c r="G5" t="n">
         <v>0.18632473515119852</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.05709411283701983</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.038258712117089644</v>
@@ -3705,10 +4149,13 @@
       <c r="G6" t="n">
         <v>-0.0596461261975767</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.06649078182395499</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.022739486969489242</v>
@@ -3728,10 +4175,13 @@
       <c r="G7" t="n">
         <v>-0.6610846179023859</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.010326633602657797</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3750,6 +4200,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.1911396191834165</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03225198503575147</v>
       </c>
     </row>
   </sheetData>
@@ -3768,7 +4221,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3785,10 +4238,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>-0.04395188752918244</v>
@@ -3808,10 +4264,13 @@
       <c r="G2" t="n">
         <v>0.4145935290006839</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.05683758735283237</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.05448818528406996</v>
@@ -3831,10 +4290,13 @@
       <c r="G3" t="n">
         <v>1.6694021938873396</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.02337028349123583</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.046883585898850555</v>
@@ -3854,10 +4316,13 @@
       <c r="G4" t="n">
         <v>1.6979681395796122</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.004787282872373039</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.00895974137147082</v>
@@ -3877,10 +4342,13 @@
       <c r="G5" t="n">
         <v>0.5306588359556059</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.018766737000354815</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.04210117601863583</v>
@@ -3900,10 +4368,13 @@
       <c r="G6" t="n">
         <v>0.3771667493193256</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.005460091107396849</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.021761491781512987</v>
@@ -3923,10 +4394,13 @@
       <c r="G7" t="n">
         <v>1.3477158451351432</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.031714466092164606</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3945,6 +4419,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.1318778783129608</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.05059027208697515</v>
       </c>
     </row>
   </sheetData>
@@ -3963,7 +4440,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3980,10 +4457,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.13102826240640297</v>
@@ -4003,10 +4483,13 @@
       <c r="G2" t="n">
         <v>-1.2223593109107844</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.03407526066482826</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.08892620919440208</v>
@@ -4026,10 +4509,13 @@
       <c r="G3" t="n">
         <v>-0.1823916571552333</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04482212598466298</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.07045846364856079</v>
@@ -4049,10 +4535,13 @@
       <c r="G4" t="n">
         <v>-0.19690536256113456</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.08976441458161027</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.03922071315328157</v>
@@ -4072,10 +4561,13 @@
       <c r="G5" t="n">
         <v>-1.8317252995439839</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.03848000264225607</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.03825871211709053</v>
@@ -4095,10 +4587,13 @@
       <c r="G6" t="n">
         <v>1.7511454996981386</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.05644813894074445</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.035367143837292225</v>
@@ -4118,10 +4613,13 @@
       <c r="G7" t="n">
         <v>-0.37516088855507945</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.05366973096881571</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4140,6 +4638,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.1958057338501145</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04543156582495609</v>
       </c>
     </row>
   </sheetData>
@@ -4158,7 +4659,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4175,10 +4676,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.05354076692802945</v>
@@ -4198,10 +4702,13 @@
       <c r="G2" t="n">
         <v>-0.5551549553012629</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.025421581927136602</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.05732506661926973</v>
@@ -4221,10 +4728,13 @@
       <c r="G3" t="n">
         <v>1.7492812337334849</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.027594004702435865</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.038258712117088756</v>
@@ -4244,10 +4754,13 @@
       <c r="G4" t="n">
         <v>0.03552827622548271</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.04539067914833615</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.03633192924739248</v>
@@ -4267,10 +4780,13 @@
       <c r="G5" t="n">
         <v>0.3708620123005577</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.027818863617688327</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.03440142671733071</v>
@@ -4290,10 +4806,13 @@
       <c r="G6" t="n">
         <v>-1.174912904474656</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.029953148242519906</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.06391332574365371</v>
@@ -4313,10 +4832,13 @@
       <c r="G7" t="n">
         <v>-0.04808926486004417</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.032850082127833816</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4335,6 +4857,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.8963007045045432</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.021535529299635432</v>
       </c>
     </row>
   </sheetData>
@@ -4353,7 +4878,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4370,10 +4895,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.07788653865707484</v>
@@ -4393,10 +4921,13 @@
       <c r="G2" t="n">
         <v>0.13336264572290135</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.07996891617429878</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>-0.017146158834973946</v>
@@ -4416,10 +4947,13 @@
       <c r="G3" t="n">
         <v>0.056048379449318175</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.06303217137392864</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.03246719013750443</v>
@@ -4439,10 +4973,13 @@
       <c r="G4" t="n">
         <v>-0.5734925077000258</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.018174145669923154</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.009950330853165212</v>
@@ -4462,10 +4999,13 @@
       <c r="G5" t="n">
         <v>-0.24206561360778475</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.008792041210245148</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.05921185963184605</v>
@@ -4485,10 +5025,13 @@
       <c r="G6" t="n">
         <v>1.5355979272197193</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.05059850624577192</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.05638033343610971</v>
@@ -4508,10 +5051,13 @@
       <c r="G7" t="n">
         <v>0.9891301806531394</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.024430021196110492</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4530,6 +5076,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.7625475207712962</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.035901592339449354</v>
       </c>
     </row>
   </sheetData>
@@ -4548,7 +5097,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4565,10 +5114,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>-0.04499736593073589</v>
@@ -4588,10 +5140,13 @@
       <c r="G2" t="n">
         <v>-1.5883233135918733</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.025652458539857738</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.10165365372649937</v>
@@ -4611,10 +5166,13 @@
       <c r="G3" t="n">
         <v>-0.6607304547358996</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.026314170409219816</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.08525984395082276</v>
@@ -4634,10 +5192,13 @@
       <c r="G4" t="n">
         <v>-1.4476530629873867</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.019681588713151302</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.08434114843374996</v>
@@ -4657,10 +5218,13 @@
       <c r="G5" t="n">
         <v>1.2665138258470998</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.020543939931766245</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.08434114843375173</v>
@@ -4680,10 +5244,13 @@
       <c r="G6" t="n">
         <v>-1.293984936350733</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.03850120613792341</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.07973496801885283</v>
@@ -4703,10 +5270,13 @@
       <c r="G7" t="n">
         <v>2.86341144328075</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.03465487105021718</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4725,6 +5295,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.651215524190406</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06214437795608111</v>
       </c>
     </row>
   </sheetData>
@@ -4743,7 +5316,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4760,10 +5333,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.059211859631845165</v>
@@ -4783,10 +5359,13 @@
       <c r="G2" t="n">
         <v>-0.7820078303825104</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.04848410581434638</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.04497336564272647</v>
@@ -4806,10 +5385,13 @@
       <c r="G3" t="n">
         <v>-0.5643591863073438</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.07287668396959113</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.0573250666192715</v>
@@ -4829,10 +5411,13 @@
       <c r="G4" t="n">
         <v>0.9488814125663587</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.08615418026975959</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.05259245011916924</v>
@@ -4852,10 +5437,13 @@
       <c r="G5" t="n">
         <v>0.6980700916062963</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.059569859116565115</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.055434706888101815</v>
@@ -4875,10 +5463,13 @@
       <c r="G6" t="n">
         <v>1.6614022640655155</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.07928918482884163</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.05638033343611415</v>
@@ -4898,10 +5489,13 @@
       <c r="G7" t="n">
         <v>-0.04117992807069282</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.07053369635197822</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4920,6 +5514,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.9017668424380186</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02058654781429813</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +5535,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4955,10 +5552,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.06672363204290743</v>
@@ -4978,10 +5578,13 @@
       <c r="G2" t="n">
         <v>1.9582407452525228</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.056355155874684607</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.05826890812397867</v>
@@ -5001,10 +5604,13 @@
       <c r="G3" t="n">
         <v>-0.9509061846239684</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.052788772965129745</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.017839918128327525</v>
@@ -5024,10 +5630,13 @@
       <c r="G4" t="n">
         <v>1.6756101966894645</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.001485332504017653</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.03052920503482337</v>
@@ -5047,10 +5656,13 @@
       <c r="G5" t="n">
         <v>2.544042431255715</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.0026082890891194407</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.02469261259037392</v>
@@ -5070,10 +5682,13 @@
       <c r="G6" t="n">
         <v>0.6376271223912191</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.044094295513545774</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.02371652661731538</v>
@@ -5093,10 +5708,13 @@
       <c r="G7" t="n">
         <v>-0.0035318263518000492</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.026797731504266606</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5115,6 +5733,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.5296325037025518</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01617872224768731</v>
       </c>
     </row>
   </sheetData>
@@ -5133,7 +5754,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5150,10 +5771,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.0788111804242897</v>
@@ -5173,10 +5797,13 @@
       <c r="G2" t="n">
         <v>-0.5818265187874418</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.045496008561440704</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.07696104113612456</v>
@@ -5196,10 +5823,13 @@
       <c r="G3" t="n">
         <v>-0.483747157344391</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.012168974453800302</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.08342160813907906</v>
@@ -5219,10 +5849,13 @@
       <c r="G4" t="n">
         <v>0.042741818192957304</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.0036184926793067784</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.006975613736424968</v>
@@ -5242,10 +5875,13 @@
       <c r="G5" t="n">
         <v>-0.18452138996154588</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.01243555528287782</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -5265,10 +5901,13 @@
       <c r="G6" t="n">
         <v>0.26355283243317285</v>
       </c>
+      <c r="H6" t="n">
+        <v>3.005820240584156E-4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>-0.016129381929887998</v>
@@ -5288,10 +5927,13 @@
       <c r="G7" t="n">
         <v>1.4595315052202071</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.05782600724876952</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5310,6 +5952,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.7113598421973872</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.07247772907980901</v>
       </c>
     </row>
   </sheetData>
@@ -5328,7 +5973,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5345,10 +5990,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.02858745685191355</v>
@@ -5368,10 +6016,13 @@
       <c r="G2" t="n">
         <v>-1.8775560079269737</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.006564320026111068</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.03343477608623768</v>
@@ -5391,10 +6042,13 @@
       <c r="G3" t="n">
         <v>1.321678636100746</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.033240029651884676</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.027615167032972288</v>
@@ -5414,10 +6068,13 @@
       <c r="G4" t="n">
         <v>1.4994453057250328</v>
       </c>
+      <c r="H4" t="n">
+        <v>-0.011606318166982613</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.03729578474369699</v>
@@ -5437,10 +6094,13 @@
       <c r="G5" t="n">
         <v>-2.118813964588067</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.022827788346894348</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.03729578474369788</v>
@@ -5460,10 +6120,13 @@
       <c r="G6" t="n">
         <v>1.7983998619715387</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.0015232151524678522</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.03246719013750177</v>
@@ -5483,10 +6146,13 @@
       <c r="G7" t="n">
         <v>0.39238287879018197</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.011460833338821445</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5505,6 +6171,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.5989097969802721</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.025669852823765677</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +6192,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5540,10 +6209,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>-0.9702190738997145</v>
@@ -5563,10 +6235,13 @@
       <c r="G2" t="n">
         <v>0.2548922744863047</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.01996400848542291</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.7153977894947663</v>
@@ -5586,10 +6261,13 @@
       <c r="G3" t="n">
         <v>0.7701145083008307</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.10167891684340435</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>-0.14618251017808248</v>
@@ -5609,10 +6287,13 @@
       <c r="G4" t="n">
         <v>-0.8318083310857163</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.21470318498322688</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>-0.27443684570175986</v>
@@ -5632,10 +6313,13 @@
       <c r="G5" t="n">
         <v>1.0224860809853396</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.11367722349171958</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>-0.10758521067993776</v>
@@ -5655,10 +6339,13 @@
       <c r="G6" t="n">
         <v>1.6687482803248113</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.19708868135039737</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>-0.030459207484708095</v>
@@ -5678,10 +6365,13 @@
       <c r="G7" t="n">
         <v>0.9872076290359324</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.006213914887751689</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5700,6 +6390,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.1436046840831886</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5497749253033682</v>
       </c>
     </row>
   </sheetData>
@@ -5718,7 +6411,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5735,10 +6428,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.014888612493750841</v>
@@ -5758,10 +6454,13 @@
       <c r="G2" t="n">
         <v>-1.4195392983990782</v>
       </c>
+      <c r="H2" t="n">
+        <v>-2.6382282828340403E-4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.029558802241545834</v>
@@ -5781,10 +6480,13 @@
       <c r="G3" t="n">
         <v>-0.3693295735679598</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.017596298972516793</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.02273948696949013</v>
@@ -5804,10 +6506,13 @@
       <c r="G4" t="n">
         <v>-0.1356803936004134</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.05149912926424098</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.03246719013749999</v>
@@ -5827,10 +6532,13 @@
       <c r="G5" t="n">
         <v>-0.1006469784425974</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.01475042836244632</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.03052920503482426</v>
@@ -5850,10 +6558,13 @@
       <c r="G6" t="n">
         <v>0.7233919906351751</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.024518234350973524</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.041141943331173714</v>
@@ -5873,10 +6584,13 @@
       <c r="G7" t="n">
         <v>-1.1780338801026051</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.032930184133520654</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5895,6 +6609,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.8392417347876371</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0164177912189203</v>
       </c>
     </row>
   </sheetData>
@@ -5913,7 +6630,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5930,10 +6647,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.04783732941415941</v>
@@ -5953,10 +6673,13 @@
       <c r="G2" t="n">
         <v>-0.6217267882035467</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.02300065565371573</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.018821754240588184</v>
@@ -5976,10 +6699,13 @@
       <c r="G3" t="n">
         <v>0.015490020691314221</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04292269718360108</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.05069311431551782</v>
@@ -5999,10 +6725,13 @@
       <c r="G4" t="n">
         <v>-1.8504825975278498</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.04029168809624647</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.055434706888100926</v>
@@ -6022,10 +6751,13 @@
       <c r="G5" t="n">
         <v>-0.673550371713775</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.015555977858524611</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.027615167032973176</v>
@@ -6045,10 +6777,13 @@
       <c r="G6" t="n">
         <v>0.25343288483635007</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.044757281255112434</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.024692612590371255</v>
@@ -6068,10 +6803,13 @@
       <c r="G7" t="n">
         <v>0.7735460548570332</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.05552107663770727</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -6090,6 +6828,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.9314854319710261</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.026269325540628663</v>
       </c>
     </row>
   </sheetData>
@@ -6108,7 +6849,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6125,10 +6866,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.03149866705937132</v>
@@ -6148,10 +6892,13 @@
       <c r="G2" t="n">
         <v>-0.011253418034339546</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.027317699524228446</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>-0.008032171697265333</v>
@@ -6171,10 +6918,13 @@
       <c r="G3" t="n">
         <v>-1.4177672798731624</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.042345618020041</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.02273948696949013</v>
@@ -6194,10 +6944,13 @@
       <c r="G4" t="n">
         <v>0.608615320002265</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.012116484465141186</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.06765864847381398</v>
@@ -6217,10 +6970,13 @@
       <c r="G5" t="n">
         <v>-1.3703691872918853</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.04068110282374313</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.058268908123976004</v>
@@ -6240,10 +6996,13 @@
       <c r="G6" t="n">
         <v>-0.28564292819723036</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.04750598288676537</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.05638033343610793</v>
@@ -6263,10 +7022,13 @@
       <c r="G7" t="n">
         <v>-1.690491986264556</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.03106320727502991</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -6285,6 +7047,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.1232537273972283</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.026308540357831336</v>
       </c>
     </row>
   </sheetData>
@@ -6303,7 +7068,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6320,10 +7085,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.04592893188840019</v>
@@ -6343,10 +7111,13 @@
       <c r="G2" t="n">
         <v>-0.0389259669561568</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.032442713124093595</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.056380333436107044</v>
@@ -6366,10 +7137,13 @@
       <c r="G3" t="n">
         <v>-0.6303706544290826</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.01225791466052581</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.05921185963184605</v>
@@ -6389,10 +7163,13 @@
       <c r="G4" t="n">
         <v>-0.25705586440652795</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.044431597441593244</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.05448818528406996</v>
@@ -6412,10 +7189,13 @@
       <c r="G5" t="n">
         <v>-1.3505595518272582</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.02900181409095194</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.013902905168992064</v>
@@ -6435,10 +7215,13 @@
       <c r="G6" t="n">
         <v>0.1958791894061349</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.03598701949612845</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.019802627296178876</v>
@@ -6458,10 +7241,13 @@
       <c r="G7" t="n">
         <v>-0.6975699886057729</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.05534844170380596</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -6480,6 +7266,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.718882295429576</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.028130322399171598</v>
       </c>
     </row>
   </sheetData>
@@ -6498,7 +7287,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6515,10 +7304,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.040181789632828924</v>
@@ -6538,10 +7330,13 @@
       <c r="G2" t="n">
         <v>-0.4803474573852262</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.05728802404835544</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.03440142671733337</v>
@@ -6561,10 +7356,13 @@
       <c r="G3" t="n">
         <v>0.6923426688334016</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.06504480372701177</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.03343477608623946</v>
@@ -6584,10 +7382,13 @@
       <c r="G4" t="n">
         <v>0.5022000015455107</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.047598184149940825</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.03633192924738893</v>
@@ -6607,10 +7408,13 @@
       <c r="G5" t="n">
         <v>0.5696422713754852</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.03135848915044072</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.034401426717331596</v>
@@ -6630,10 +7434,13 @@
       <c r="G6" t="n">
         <v>-0.48218575566675986</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.0571203773460605</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.03729578474369699</v>
@@ -6653,10 +7460,13 @@
       <c r="G7" t="n">
         <v>0.41974800622477243</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.04530943192777407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -6675,6 +7485,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.519796458789148</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.018427091937663283</v>
       </c>
     </row>
   </sheetData>
@@ -6693,7 +7506,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6710,10 +7523,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.05069311431551693</v>
@@ -6733,10 +7549,13 @@
       <c r="G2" t="n">
         <v>0.6829584535967581</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.06482120552491112</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.029558802241549387</v>
@@ -6756,10 +7575,13 @@
       <c r="G3" t="n">
         <v>-0.8133313912387288</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04839975714634989</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.04401688541676929</v>
@@ -6779,10 +7601,13 @@
       <c r="G4" t="n">
         <v>-0.6373912810562157</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.03206225751618259</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.02664193094642009</v>
@@ -6802,10 +7627,13 @@
       <c r="G5" t="n">
         <v>-0.6699632207647106</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.045780917239329505</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.04401688541677462</v>
@@ -6825,10 +7653,13 @@
       <c r="G6" t="n">
         <v>-0.022562368556791945</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.05542032857758694</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.011928570865274324</v>
@@ -6848,10 +7679,13 @@
       <c r="G7" t="n">
         <v>-0.8584836496038779</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.04688206926929342</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -6870,6 +7704,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.6857902248318994</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.020064828407393997</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +7725,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6905,10 +7742,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.06859279146560748</v>
@@ -6928,10 +7768,13 @@
       <c r="G2" t="n">
         <v>-1.8766843005478755</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.03490199615248975</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.06952606264861139</v>
@@ -6951,10 +7794,13 @@
       <c r="G3" t="n">
         <v>0.5535760061305304</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04792973952361353</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.06859279146561104</v>
@@ -6974,10 +7820,13 @@
       <c r="G4" t="n">
         <v>0.7217774565711537</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.0819155013106827</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.07138999608667174</v>
@@ -6997,10 +7846,13 @@
       <c r="G5" t="n">
         <v>0.9946889647637782</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.06608095344470002</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.06391332574365638</v>
@@ -7020,10 +7872,13 @@
       <c r="G6" t="n">
         <v>1.4886150568884027</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.08439575834815005</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.0372957847436961</v>
@@ -7043,10 +7898,13 @@
       <c r="G7" t="n">
         <v>1.3257593147492326</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.06567685959585597</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -7065,6 +7923,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.2238907764221783</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02248023890702485</v>
       </c>
     </row>
   </sheetData>
@@ -7083,7 +7944,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7100,10 +7961,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.0497420918948146</v>
@@ -7123,10 +7987,13 @@
       <c r="G2" t="n">
         <v>-1.4385128406011618</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.04586408185121457</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.04974209189481282</v>
@@ -7146,10 +8013,13 @@
       <c r="G3" t="n">
         <v>-0.8664224633295845</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.055522399333728205</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.054488185284070845</v>
@@ -7169,10 +8039,13 @@
       <c r="G4" t="n">
         <v>-0.08142952482889587</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.04313688403482868</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.062035390919452205</v>
@@ -7192,10 +8065,13 @@
       <c r="G5" t="n">
         <v>0.92246733532152</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.06624897518846429</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.058268908123975116</v>
@@ -7215,10 +8091,13 @@
       <c r="G6" t="n">
         <v>-1.307138062847352</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.07080546785598821</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.010939940038334761</v>
@@ -7238,10 +8117,13 @@
       <c r="G7" t="n">
         <v>0.11528203680523941</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.060393430223791476</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -7260,6 +8142,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.9736786311674577</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.021594251819512647</v>
       </c>
     </row>
   </sheetData>
@@ -7278,7 +8163,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7295,10 +8180,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.022739486969489242</v>
@@ -7318,10 +8206,13 @@
       <c r="G2" t="n">
         <v>-0.8794018467094644</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.02609162995447495</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.11154137473290593</v>
@@ -7341,10 +8232,13 @@
       <c r="G3" t="n">
         <v>-1.2992246744011338</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.007999973408857504</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.05164323315183861</v>
@@ -7364,10 +8258,13 @@
       <c r="G4" t="n">
         <v>-0.8231914953615318</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.08421707886216515</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.07232066157962702</v>
@@ -7387,10 +8284,13 @@
       <c r="G5" t="n">
         <v>0.5527089978836502</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.07672706071926796</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.03922071315328157</v>
@@ -7410,10 +8310,13 @@
       <c r="G6" t="n">
         <v>1.5449893324461001</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.06969121476564782</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.04879016416943038</v>
@@ -7433,10 +8336,13 @@
       <c r="G7" t="n">
         <v>-4.054871532830105</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.034390690936096285</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -7455,6 +8361,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.9539535581933802</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.05053310440334175</v>
       </c>
     </row>
   </sheetData>
@@ -7473,7 +8382,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7490,10 +8399,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.03825871211709142</v>
@@ -7513,10 +8425,13 @@
       <c r="G2" t="n">
         <v>-1.4404900375309326</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.06381621356819236</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.05069311431551693</v>
@@ -7536,10 +8451,13 @@
       <c r="G3" t="n">
         <v>-0.933981288813182</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.08795897945858572</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.06578774053800274</v>
@@ -7559,10 +8477,13 @@
       <c r="G4" t="n">
         <v>0.9111667900813738</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.08569266593399338</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.04688358589885144</v>
@@ -7582,10 +8503,13 @@
       <c r="G5" t="n">
         <v>0.10861903866587674</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.06069844113844419</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.029558802241544946</v>
@@ -7605,10 +8529,13 @@
       <c r="G6" t="n">
         <v>0.8212983379295915</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.06389283701864512</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>-0.007024614936964824</v>
@@ -7628,10 +8555,13 @@
       <c r="G7" t="n">
         <v>-0.6341411499946226</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.0807983500297108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -7650,6 +8580,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.9032243343721337</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.043819109197564196</v>
       </c>
     </row>
   </sheetData>
@@ -7668,7 +8601,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7685,10 +8618,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.04783732941416119</v>
@@ -7708,10 +8644,13 @@
       <c r="G2" t="n">
         <v>0.29031311489012124</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.011715588267995437</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.042101176018634945</v>
@@ -7731,10 +8670,13 @@
       <c r="G3" t="n">
         <v>1.1866456851276053</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04639017685058538</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.05259245011917102</v>
@@ -7754,10 +8696,13 @@
       <c r="G4" t="n">
         <v>1.5361298511248975</v>
       </c>
+      <c r="H4" t="n">
+        <v>-1.6435247479102202E-4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.061095099359810945</v>
@@ -7777,10 +8722,13 @@
       <c r="G5" t="n">
         <v>1.3252245416136805</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.07767387401014042</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.0266419309464192</v>
@@ -7800,10 +8748,13 @@
       <c r="G6" t="n">
         <v>-0.3510554057744599</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.058728422457261384</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>-0.016129381929883557</v>
@@ -7823,10 +8774,13 @@
       <c r="G7" t="n">
         <v>-0.21196018528435356</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.0400125194729436</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -7845,6 +8799,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.9441652475898208</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03777734711660741</v>
       </c>
     </row>
   </sheetData>
@@ -7863,7 +8820,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7880,10 +8837,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.07510747248680527</v>
@@ -7903,10 +8863,13 @@
       <c r="G2" t="n">
         <v>0.3232663072747948</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.041947952127322476</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.08434114843375085</v>
@@ -7926,10 +8889,13 @@
       <c r="G3" t="n">
         <v>0.11755631036176695</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.059108268149498745</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.045928931888399305</v>
@@ -7949,10 +8915,13 @@
       <c r="G4" t="n">
         <v>-1.9218955435715788</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.07251197418991512</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.07325046173959393</v>
@@ -7972,10 +8941,13 @@
       <c r="G5" t="n">
         <v>0.34510870888042255</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.057760851001088465</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.08525984395082364</v>
@@ -7995,10 +8967,13 @@
       <c r="G6" t="n">
         <v>1.5928376184011743</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.06521489555975599</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.05732506661926884</v>
@@ -8018,10 +8993,13 @@
       <c r="G7" t="n">
         <v>-0.019097597571492653</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.11600546145479562</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8040,6 +9018,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.0236826735404667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03298491299265681</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +9039,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8075,10 +9056,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.0430594894604468</v>
@@ -8098,10 +9082,13 @@
       <c r="G2" t="n">
         <v>-0.6517524361880849</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.021243551732829526</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.030529205034822482</v>
@@ -8121,10 +9108,13 @@
       <c r="G3" t="n">
         <v>-0.6263512840304246</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.03170664714420406</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.04688358589884967</v>
@@ -8144,10 +9134,13 @@
       <c r="G4" t="n">
         <v>-0.07860270293656857</v>
       </c>
+      <c r="H4" t="n">
+        <v>-0.003400112517720981</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.06297479916139004</v>
@@ -8167,10 +9160,13 @@
       <c r="G5" t="n">
         <v>0.18560114863664</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.059618889143533776</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.0372957847436961</v>
@@ -8190,10 +9186,13 @@
       <c r="G6" t="n">
         <v>0.06547457696290415</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.04393154490865585</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.04018178963282715</v>
@@ -8213,10 +9212,13 @@
       <c r="G7" t="n">
         <v>0.35050030978505653</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.039203855578599414</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8235,6 +9237,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.4167595724734934</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.022590645687002402</v>
       </c>
     </row>
   </sheetData>
@@ -8253,7 +9258,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8270,10 +9275,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.017839918128331966</v>
@@ -8293,10 +9301,13 @@
       <c r="G2" t="n">
         <v>1.066214682604395</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.040106890060697516</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.0430594894604468</v>
@@ -8316,10 +9327,13 @@
       <c r="G3" t="n">
         <v>-1.5636056928454665</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.03908791704823248</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.03440142671733337</v>
@@ -8339,10 +9353,13 @@
       <c r="G4" t="n">
         <v>0.8639960511154693</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.05478568968999912</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.040181789632832476</v>
@@ -8362,10 +9379,13 @@
       <c r="G5" t="n">
         <v>0.007622435403832062</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.04145865924610322</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.06297479916138649</v>
@@ -8385,10 +9405,13 @@
       <c r="G6" t="n">
         <v>0.5679225634498664</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.043643130385544085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.06485097231961667</v>
@@ -8408,10 +9431,13 @@
       <c r="G7" t="n">
         <v>0.5303814053620648</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.04052950512179846</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8430,6 +9456,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.8982799151666712</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.017766950515511144</v>
       </c>
     </row>
   </sheetData>
@@ -8448,7 +9477,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8465,10 +9494,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.07603468627599774</v>
@@ -8488,10 +9520,13 @@
       <c r="G2" t="n">
         <v>0.24813878607734985</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.04068183740704312</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.06391332574365283</v>
@@ -8511,10 +9546,13 @@
       <c r="G3" t="n">
         <v>1.4385392768830627</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.0742453749334855</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.058268908123975116</v>
@@ -8534,10 +9572,13 @@
       <c r="G4" t="n">
         <v>0.9311488199257296</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.07134838554109316</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.0324671901374991</v>
@@ -8557,10 +9598,13 @@
       <c r="G5" t="n">
         <v>0.9573641148270156</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.032821080971536847</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.034401426717336925</v>
@@ -8580,10 +9624,13 @@
       <c r="G6" t="n">
         <v>0.3239902941701247</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.039158176030686484</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.0440168854167684</v>
@@ -8603,10 +9650,13 @@
       <c r="G7" t="n">
         <v>0.8654115966636837</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.05417671208618433</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8625,6 +9675,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.8460812581403865</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01660131457557007</v>
       </c>
     </row>
   </sheetData>
@@ -8643,7 +9696,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8660,10 +9713,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.04688358589884878</v>
@@ -8683,10 +9739,13 @@
       <c r="G2" t="n">
         <v>0.6693737045809813</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.03300160094446297</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.14149956227370009</v>
@@ -8706,10 +9765,13 @@
       <c r="G3" t="n">
         <v>-0.8523616979995623</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.035293151922191124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.1881379421153948</v>
@@ -8729,10 +9791,13 @@
       <c r="G4" t="n">
         <v>0.2678723155461542</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.09177542349424969</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.0449733656427318</v>
@@ -8752,10 +9817,13 @@
       <c r="G5" t="n">
         <v>0.34697060309616035</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.08429330377946578</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>-0.22941316432780567</v>
@@ -8775,10 +9843,13 @@
       <c r="G6" t="n">
         <v>0.11879001005036027</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.0769358881664853</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.06109509935981183</v>
@@ -8798,10 +9869,13 @@
       <c r="G7" t="n">
         <v>-0.10746128714017811</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.04171754904512119</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8820,6 +9894,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.5200113396747095</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.13936136184781292</v>
       </c>
     </row>
   </sheetData>
@@ -8838,7 +9915,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8855,10 +9932,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>-0.1131686981056399</v>
@@ -8878,10 +9958,13 @@
       <c r="G2" t="n">
         <v>-0.3388022253828579</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.003935911422632799</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.0119285708652761</v>
@@ -8901,10 +9984,13 @@
       <c r="G3" t="n">
         <v>-0.4382521104528266</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.01967558286583389</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.0276151670329714</v>
@@ -8924,10 +10010,13 @@
       <c r="G4" t="n">
         <v>0.6549030536413323</v>
       </c>
+      <c r="H4" t="n">
+        <v>-0.015444177129182425</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.035367143837292225</v>
@@ -8947,10 +10036,13 @@
       <c r="G5" t="n">
         <v>1.084815782894557</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.010417560139099662</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.035367143837292225</v>
@@ -8970,10 +10062,13 @@
       <c r="G6" t="n">
         <v>-0.2689755324761164</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.05017026581963125</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.03149866705937043</v>
@@ -8993,10 +10088,13 @@
       <c r="G7" t="n">
         <v>0.7672922489570421</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.005265147547906359</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9015,6 +10113,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.6301352147166158</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06525488100871608</v>
       </c>
     </row>
   </sheetData>
@@ -9033,7 +10134,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9050,10 +10151,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.03246719013750088</v>
@@ -9073,10 +10177,13 @@
       <c r="G2" t="n">
         <v>-0.20448944186561135</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.027882545687934177</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.021761491781512987</v>
@@ -9096,10 +10203,13 @@
       <c r="G3" t="n">
         <v>-0.0864902336122313</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.02739721771889427</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.024692612590372143</v>
@@ -9119,10 +10229,13 @@
       <c r="G4" t="n">
         <v>1.1563938905103566</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.02091392682662402</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.016857117066422234</v>
@@ -9142,10 +10255,13 @@
       <c r="G5" t="n">
         <v>1.462943429676871</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.03195884936511981</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.012916225266547343</v>
@@ -9165,10 +10281,13 @@
       <c r="G6" t="n">
         <v>0.8325603977847464</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.03998070627473123</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.002995508979797279</v>
@@ -9188,10 +10307,13 @@
       <c r="G7" t="n">
         <v>-0.46463130867032376</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.030427831441213915</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9210,6 +10332,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.8495363144675467</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01722468966320527</v>
       </c>
     </row>
   </sheetData>
@@ -9228,7 +10353,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9245,10 +10370,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>-0.020202707317519497</v>
@@ -9268,10 +10396,13 @@
       <c r="G2" t="n">
         <v>-0.2661052148847811</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.035222745929194665</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.004987541511038529</v>
@@ -9291,10 +10422,13 @@
       <c r="G3" t="n">
         <v>0.760789952523091</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.034931618615483814</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.043059489460447686</v>
@@ -9314,10 +10448,13 @@
       <c r="G4" t="n">
         <v>0.7470639536857142</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.005112349597710673</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.026641930946420977</v>
@@ -9337,10 +10474,13 @@
       <c r="G5" t="n">
         <v>1.2396772136399479</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.07334114058622704</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.04783732941416119</v>
@@ -9360,10 +10500,13 @@
       <c r="G6" t="n">
         <v>0.6246908528855064</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.03000900064350934</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.04592893188839842</v>
@@ -9383,10 +10526,13 @@
       <c r="G7" t="n">
         <v>-0.5978001541548617</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.03180150550073077</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9405,6 +10551,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.746762940317225</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03675791005366229</v>
       </c>
     </row>
   </sheetData>
@@ -9423,7 +10572,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9440,10 +10589,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.07603468627599685</v>
@@ -9463,10 +10615,13 @@
       <c r="G2" t="n">
         <v>0.4890439984767685</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.05188320685302668</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.0497420918948146</v>
@@ -9486,10 +10641,13 @@
       <c r="G3" t="n">
         <v>-0.45381094232031405</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.05625850534375279</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.07045846364856079</v>
@@ -9509,10 +10667,13 @@
       <c r="G4" t="n">
         <v>0.16974465598377808</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.05457748799075883</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.0676586484738193</v>
@@ -9532,10 +10693,13 @@
       <c r="G5" t="n">
         <v>0.22678507895588051</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.06290289088962228</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.06765864847381131</v>
@@ -9555,10 +10719,13 @@
       <c r="G6" t="n">
         <v>1.6082795360571094</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.06048840257622701</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.06765864847381486</v>
@@ -9578,10 +10745,13 @@
       <c r="G7" t="n">
         <v>0.2640067287320278</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.06456359154546112</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9600,6 +10770,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.6917835170746746</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.012659463023239276</v>
       </c>
     </row>
   </sheetData>
@@ -9618,7 +10791,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9635,10 +10808,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.029558802241544946</v>
@@ -9658,10 +10834,13 @@
       <c r="G2" t="n">
         <v>-0.325821714386052</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.014433201381062173</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.046883585898850555</v>
@@ -9681,10 +10860,13 @@
       <c r="G3" t="n">
         <v>-0.3043173502923757</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.028242395271970047</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.0695260626486105</v>
@@ -9704,10 +10886,13 @@
       <c r="G4" t="n">
         <v>-0.8607076879735551</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.0335061917138086</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.06203539091945309</v>
@@ -9727,10 +10912,13 @@
       <c r="G5" t="n">
         <v>0.18693870234396925</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.03460197438309505</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.020782539182527593</v>
@@ -9750,10 +10938,13 @@
       <c r="G6" t="n">
         <v>0.5876034371455123</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.07095340474117873</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.03922071315328157</v>
@@ -9773,10 +10964,13 @@
       <c r="G7" t="n">
         <v>0.32755965223442196</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.025541611976378983</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9795,6 +10989,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.505799425223656</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.029806416519231865</v>
       </c>
     </row>
   </sheetData>
@@ -9813,7 +11010,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9830,10 +11027,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.047837329414158525</v>
@@ -9853,10 +11053,13 @@
       <c r="G2" t="n">
         <v>-0.20283562766206042</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.04570907747036519</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.046883585898850555</v>
@@ -9876,10 +11079,13 @@
       <c r="G3" t="n">
         <v>-1.1962998584314715</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04380891168140278</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.03922071315328246</v>
@@ -9899,10 +11105,13 @@
       <c r="G4" t="n">
         <v>-0.07907584764787057</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.04592852037352174</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.05732506661926884</v>
@@ -9922,10 +11131,13 @@
       <c r="G5" t="n">
         <v>0.8513596249769746</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.025289389358512267</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.05164323315183861</v>
@@ -9945,10 +11157,13 @@
       <c r="G6" t="n">
         <v>0.07100827092437356</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.0580258878718712</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.04879016416943127</v>
@@ -9968,10 +11183,13 @@
       <c r="G7" t="n">
         <v>-2.085031682684281</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.055661922614972784</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9990,6 +11208,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.0650819720118694</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.013983452831519435</v>
       </c>
     </row>
   </sheetData>
@@ -10008,7 +11229,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10025,10 +11246,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>-0.01918281941677158</v>
@@ -10048,10 +11272,13 @@
       <c r="G2" t="n">
         <v>-1.0360423934467402</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.03560507262553129</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.03922071315327713</v>
@@ -10071,10 +11298,13 @@
       <c r="G3" t="n">
         <v>0.5781563441610711</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04368648584397821</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.02858745685191355</v>
@@ -10094,10 +11324,13 @@
       <c r="G4" t="n">
         <v>-0.3203260825886556</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.04382095334687972</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.027615167032973176</v>
@@ -10117,10 +11350,13 @@
       <c r="G5" t="n">
         <v>0.7532360522453985</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.04747124769325484</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.010939940038332985</v>
@@ -10140,10 +11376,13 @@
       <c r="G6" t="n">
         <v>-0.523114660753702</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.026424244987225</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.011928570865272548</v>
@@ -10163,10 +11402,13 @@
       <c r="G7" t="n">
         <v>1.38358530739173</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.03759106745443071</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10185,6 +11427,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.8305999693206851</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02752667501943233</v>
       </c>
     </row>
   </sheetData>
@@ -10203,7 +11448,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10220,10 +11465,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.08984070399979327</v>
@@ -10243,10 +11491,13 @@
       <c r="G2" t="n">
         <v>0.12169302276383637</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.054138405343734805</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.0372957847436961</v>
@@ -10266,10 +11517,13 @@
       <c r="G3" t="n">
         <v>-0.6098736479063087</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.05506994696899517</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.035367143837293114</v>
@@ -10289,10 +11543,13 @@
       <c r="G4" t="n">
         <v>-1.0587663344405718</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.06724294795910962</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.04974209189481371</v>
@@ -10312,10 +11569,13 @@
       <c r="G5" t="n">
         <v>-0.7792492112823763</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.02819857250261189</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.05069311431551515</v>
@@ -10335,10 +11595,13 @@
       <c r="G6" t="n">
         <v>0.6559410606173657</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.025515733105531832</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.045928931888399305</v>
@@ -10358,10 +11621,13 @@
       <c r="G7" t="n">
         <v>1.1102256079162114</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.05353587488621529</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10380,6 +11646,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.7961626702403501</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02504173581149769</v>
       </c>
     </row>
   </sheetData>
@@ -10398,7 +11667,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10415,10 +11684,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.054488185284070845</v>
@@ -10438,10 +11710,13 @@
       <c r="G2" t="n">
         <v>1.417964302907885</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.033466461255960235</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.07325046173959215</v>
@@ -10461,10 +11736,13 @@
       <c r="G3" t="n">
         <v>0.5557565604482928</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.02667608410663167</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.0497420918948146</v>
@@ -10484,10 +11762,13 @@
       <c r="G4" t="n">
         <v>-1.4690521299478467</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.042435654911278986</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.04592893188839842</v>
@@ -10507,10 +11788,13 @@
       <c r="G5" t="n">
         <v>0.030612878914829444</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.03322499791515433</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.02858745685191355</v>
@@ -10530,10 +11814,13 @@
       <c r="G6" t="n">
         <v>-1.091496812333653</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.06249994906698213</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.03536714383729134</v>
@@ -10553,10 +11840,13 @@
       <c r="G7" t="n">
         <v>1.644443018194857</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.0599935665245626</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10575,6 +11865,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.172075343704453</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.027635657266810845</v>
       </c>
     </row>
   </sheetData>
@@ -10593,7 +11886,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10610,10 +11903,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.1432341680859066</v>
@@ -10633,10 +11929,13 @@
       <c r="G2" t="n">
         <v>0.3406629551859215</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.015530050722279642</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.13802129789737272</v>
@@ -10656,10 +11955,13 @@
       <c r="G3" t="n">
         <v>0.8533264722981047</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.021606698042543136</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.053540766928031225</v>
@@ -10679,10 +11981,13 @@
       <c r="G4" t="n">
         <v>-0.485883232122033</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.116422605810124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.020782539182527593</v>
@@ -10702,10 +12007,13 @@
       <c r="G5" t="n">
         <v>0.16723125602434497</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.02088223619352829</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.016857117066422234</v>
@@ -10725,10 +12033,13 @@
       <c r="G6" t="n">
         <v>0.6727752859846658</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.047014775558564294</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.005982071677549605</v>
@@ -10748,10 +12059,13 @@
       <c r="G7" t="n">
         <v>-0.29627894445432634</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.037749984505864746</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10770,6 +12084,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.480391413694111</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.07717244856258253</v>
       </c>
     </row>
   </sheetData>
@@ -10788,7 +12105,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10805,10 +12122,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.058268908123976004</v>
@@ -10828,10 +12148,13 @@
       <c r="G2" t="n">
         <v>0.46090112978095554</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.0774079865560392</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.04401688541677373</v>
@@ -10851,10 +12174,13 @@
       <c r="G3" t="n">
         <v>0.5606728863136556</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.11536250635866294</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.10705907229340816</v>
@@ -10874,10 +12200,13 @@
       <c r="G4" t="n">
         <v>-0.5115759815433218</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.12265264285158911</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.0401817896328307</v>
@@ -10897,10 +12226,13 @@
       <c r="G5" t="n">
         <v>0.6292551314253005</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.0835360673029579</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>-0.017146158834970393</v>
@@ -10920,10 +12252,13 @@
       <c r="G6" t="n">
         <v>-1.2640939571537988</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.08219666087700056</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.04210117601863672</v>
@@ -10943,10 +12278,13 @@
       <c r="G7" t="n">
         <v>-0.08337417808443881</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.08616981130755336</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10965,6 +12303,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.6744609869177981</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.056848182659924106</v>
       </c>
     </row>
   </sheetData>
@@ -10983,7 +12324,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11000,10 +12341,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.06391332574365194</v>
@@ -11023,10 +12367,13 @@
       <c r="G2" t="n">
         <v>0.6814175345557114</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.04681537329042508</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.06297479916138915</v>
@@ -11046,10 +12393,13 @@
       <c r="G3" t="n">
         <v>-0.0672570599353115</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.03451677887949241</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.05638033343610793</v>
@@ -11069,10 +12419,13 @@
       <c r="G4" t="n">
         <v>-0.4869110090267803</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.05642001724220019</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.042101176018634945</v>
@@ -11092,10 +12445,13 @@
       <c r="G5" t="n">
         <v>0.4821832447124539</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.057108680386068277</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.03825871211709053</v>
@@ -11115,10 +12471,13 @@
       <c r="G6" t="n">
         <v>0.01583708726759525</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.055323503721948955</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.05732506661927328</v>
@@ -11138,10 +12497,13 @@
       <c r="G7" t="n">
         <v>0.666192262357205</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.055451026322473985</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -11160,6 +12522,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.45795405270107126</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.016442550482168326</v>
       </c>
     </row>
   </sheetData>
@@ -11178,7 +12543,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11195,10 +12560,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.0411419433311746</v>
@@ -11218,10 +12586,13 @@
       <c r="G2" t="n">
         <v>-0.3104862983197041</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.06335925162932815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.03922071315328157</v>
@@ -11241,10 +12612,13 @@
       <c r="G3" t="n">
         <v>0.8184419269936107</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.059653962588273116</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.04497336564273091</v>
@@ -11264,10 +12638,13 @@
       <c r="G4" t="n">
         <v>0.48285062795467404</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.024513123804506966</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.04592893188839842</v>
@@ -11287,10 +12664,13 @@
       <c r="G5" t="n">
         <v>-0.35130116757203034</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.05685234191673832</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>-0.03978087001184427</v>
@@ -11310,10 +12690,13 @@
       <c r="G6" t="n">
         <v>-1.0663482537251348</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.0688384281899075</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>-0.0060180723255607305</v>
@@ -11333,10 +12716,13 @@
       <c r="G7" t="n">
         <v>0.737703832327739</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.0330440341550334</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -11355,6 +12741,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.6692432584590737</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04962034018047434</v>
       </c>
     </row>
   </sheetData>
@@ -11373,7 +12762,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11390,10 +12779,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
         <v>0.03922071315328335</v>
@@ -11413,10 +12805,13 @@
       <c r="G2" t="n">
         <v>-2.1935133788155214</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.04887103199115991</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
         <v>0.010939940038332097</v>
@@ -11436,10 +12831,13 @@
       <c r="G3" t="n">
         <v>-1.317742259450187</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.03338353155903413</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.007968169649175572</v>
@@ -11459,10 +12857,13 @@
       <c r="G4" t="n">
         <v>-0.008737989691135262</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.008554320163640057</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
         <v>0.005982071677548717</v>
@@ -11482,10 +12883,13 @@
       <c r="G5" t="n">
         <v>1.4533160930201792</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.017150382755541066</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
         <v>0.010939940038334761</v>
@@ -11505,10 +12909,13 @@
       <c r="G6" t="n">
         <v>-1.16061892287189</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.010960094738550988</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
         <v>0.03825871211709231</v>
@@ -11528,10 +12935,13 @@
       <c r="G7" t="n">
         <v>-1.339887134527634</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.02799333731055845</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -11550,6 +12960,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.4211139364163565</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.014758656453805015</v>
       </c>
     </row>
   </sheetData>
